--- a/data/data_koae/excel/KOAE_2009.xlsx
+++ b/data/data_koae/excel/KOAE_2009.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,12 +469,6 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -576,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -664,7 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,22 +1007,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1044,10 +1037,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="Z81" sqref="Z81"/>
+      <selection pane="topRight" activeCell="A52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,21 +1075,21 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9">
@@ -1123,16 +1116,16 @@
       <c r="AE2" s="8"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9">
@@ -1159,16 +1152,16 @@
       <c r="AE3" s="8"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9">
@@ -1214,11 +1207,11 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -1333,15 +1326,15 @@
       <c r="E8" s="23"/>
       <c r="W8" s="6">
         <f>AVERAGE(W10:W137)</f>
-        <v>-0.10282505508512259</v>
+        <v>-0.10896505517885088</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="1">AVERAGE(X10:X137)</f>
-        <v>-5.5458231037482618E-2</v>
+        <v>-2.6258231047540902E-2</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="1"/>
-        <v>5.3716842783614993E-2</v>
+        <v>7.8036842774599796E-2</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
@@ -1778,15 +1771,15 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="51">
         <f>N15+W$8</f>
-        <v>-5469242.8360584406</v>
+        <v>-5469242.8421984408</v>
       </c>
       <c r="AA15" s="51">
         <f>O15+X$8</f>
-        <v>-2518480.9081507074</v>
+        <v>-2518480.8789507076</v>
       </c>
       <c r="AB15" s="51">
         <f>P15+Y$8</f>
-        <v>2099557.5063896226</v>
+        <v>2099557.5307096229</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -1992,15 +1985,15 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="51">
         <f t="shared" ref="Z18:AB78" si="6">N18+W$8</f>
-        <v>-5469283.550214529</v>
+        <v>-5469283.5563545292</v>
       </c>
       <c r="AA18" s="51">
         <f t="shared" si="6"/>
-        <v>-2518480.7003161255</v>
+        <v>-2518480.6711161258</v>
       </c>
       <c r="AB18" s="51">
         <f t="shared" si="6"/>
-        <v>2099460.9798826324</v>
+        <v>2099461.0042026327</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.35">
@@ -2206,15 +2199,15 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="51">
         <f t="shared" si="6"/>
-        <v>-5469324.1293679122</v>
+        <v>-5469324.1355079124</v>
       </c>
       <c r="AA21" s="51">
         <f t="shared" si="6"/>
-        <v>-2518494.948443945</v>
+        <v>-2518494.9192439453</v>
       </c>
       <c r="AB21" s="51">
         <f t="shared" si="6"/>
-        <v>2099346.9276668429</v>
+        <v>2099346.9519868428</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2420,15 +2413,15 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="51">
         <f t="shared" si="6"/>
-        <v>-5469345.4622500548</v>
+        <v>-5469345.468390055</v>
       </c>
       <c r="AA24" s="51">
         <f t="shared" si="6"/>
-        <v>-2518520.1377165643</v>
+        <v>-2518520.1085165646</v>
       </c>
       <c r="AB24" s="51">
         <f t="shared" si="6"/>
-        <v>2099254.9863968426</v>
+        <v>2099255.010716843</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -2708,15 +2701,15 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="51">
         <f t="shared" si="6"/>
-        <v>-5469211.3293546857</v>
+        <v>-5469211.3354946859</v>
       </c>
       <c r="AA28" s="51">
         <f t="shared" si="6"/>
-        <v>-2518466.8391878605</v>
+        <v>-2518466.8099878607</v>
       </c>
       <c r="AB28" s="51">
         <f t="shared" si="6"/>
-        <v>2099657.2280768426</v>
+        <v>2099657.2523968429</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -2993,15 +2986,15 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="51">
         <f t="shared" si="6"/>
-        <v>-5469178.411425055</v>
+        <v>-5469178.4175650552</v>
       </c>
       <c r="AA32" s="51">
         <f t="shared" si="6"/>
-        <v>-2518469.8045582306</v>
+        <v>-2518469.7753582308</v>
       </c>
       <c r="AB32" s="51">
         <f t="shared" si="6"/>
-        <v>2099754.8451168425</v>
+        <v>2099754.8694368429</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -3201,27 +3194,27 @@
       <c r="V35" s="50"/>
       <c r="W35" s="50">
         <f>N36-N35</f>
-        <v>-7.6399999670684338E-2</v>
+        <v>-7.7899999916553497E-2</v>
       </c>
       <c r="X35" s="50">
         <f t="shared" ref="X35:Y35" si="7">O36-O35</f>
-        <v>-6.3700000289827585E-2</v>
+        <v>-5.6100000161677599E-2</v>
       </c>
       <c r="Y35" s="50">
         <f t="shared" si="7"/>
-        <v>4.7300000209361315E-2</v>
+        <v>5.2300000097602606E-2</v>
       </c>
       <c r="Z35" s="51">
         <f t="shared" si="6"/>
-        <v>-5469170.246925055</v>
+        <v>-5469170.2530650552</v>
       </c>
       <c r="AA35" s="51">
         <f t="shared" si="6"/>
-        <v>-2518419.9713582308</v>
+        <v>-2518419.942158231</v>
       </c>
       <c r="AB35" s="51">
         <f t="shared" si="6"/>
-        <v>2099831.9951168429</v>
+        <v>2099832.0194368428</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -3264,14 +3257,14 @@
       <c r="M36">
         <v>2099831.9887000001</v>
       </c>
-      <c r="N36">
-        <v>-5469170.2204999998</v>
-      </c>
-      <c r="O36">
-        <v>-2518419.9796000002</v>
-      </c>
-      <c r="P36">
-        <v>2099831.9887000001</v>
+      <c r="N36" s="46">
+        <v>-5469170.2220000001</v>
+      </c>
+      <c r="O36" s="46">
+        <v>-2518419.9720000001</v>
+      </c>
+      <c r="P36" s="46">
+        <v>2099831.9937</v>
       </c>
       <c r="Q36" s="30">
         <f>1/T36</f>
@@ -3299,15 +3292,15 @@
       <c r="Y36" s="50"/>
       <c r="Z36" s="50">
         <f>N36</f>
-        <v>-5469170.2204999998</v>
+        <v>-5469170.2220000001</v>
       </c>
       <c r="AA36" s="50">
         <f>O36</f>
-        <v>-2518419.9796000002</v>
+        <v>-2518419.9720000001</v>
       </c>
       <c r="AB36" s="50">
         <f>P36</f>
-        <v>2099831.9887000001</v>
+        <v>2099831.9937</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -3635,27 +3628,27 @@
       <c r="V41" s="50"/>
       <c r="W41" s="50">
         <f>N42-N41</f>
-        <v>-0.11500000022351742</v>
+        <v>-8.3100000396370888E-2</v>
       </c>
       <c r="X41" s="50">
         <f t="shared" ref="X41:Y41" si="8">O42-O41</f>
-        <v>7.0000002160668373E-3</v>
+        <v>-0.16000000014901161</v>
       </c>
       <c r="Y41" s="50">
         <f t="shared" si="8"/>
-        <v>7.6799999922513962E-2</v>
+        <v>1.919999998062849E-2</v>
       </c>
       <c r="Z41" s="51">
         <f t="shared" si="6"/>
-        <v>-5469158.3239250546</v>
+        <v>-5469158.3300650548</v>
       </c>
       <c r="AA41" s="51">
         <f t="shared" si="6"/>
-        <v>-2518324.2334582307</v>
+        <v>-2518324.204258231</v>
       </c>
       <c r="AB41" s="51">
         <f t="shared" si="6"/>
-        <v>2100028.8363168426</v>
+        <v>2100028.8606368429</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
@@ -3698,17 +3691,14 @@
       <c r="M42">
         <v>2100028.8536</v>
       </c>
-      <c r="N42" s="61">
-        <f>K42+K$4</f>
-        <v>-5469158.3361</v>
-      </c>
-      <c r="O42" s="61">
-        <f>L42+L$4</f>
-        <v>-2518324.1709999996</v>
-      </c>
-      <c r="P42" s="61">
-        <f>M42+M$4</f>
-        <v>2100028.8594</v>
+      <c r="N42" s="46">
+        <v>-5469158.3042000001</v>
+      </c>
+      <c r="O42" s="46">
+        <v>-2518324.338</v>
+      </c>
+      <c r="P42" s="46">
+        <v>2100028.8018</v>
       </c>
       <c r="Q42" s="30">
         <f>1/T42</f>
@@ -3736,15 +3726,15 @@
       <c r="Y42" s="50"/>
       <c r="Z42" s="51">
         <f>N42</f>
-        <v>-5469158.3361</v>
+        <v>-5469158.3042000001</v>
       </c>
       <c r="AA42" s="51">
         <f>O42</f>
-        <v>-2518324.1709999996</v>
+        <v>-2518324.338</v>
       </c>
       <c r="AB42" s="51">
         <f>P42</f>
-        <v>2100028.8594</v>
+        <v>2100028.8018</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -3950,15 +3940,15 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="51">
         <f t="shared" si="6"/>
-        <v>-5469128.9559776867</v>
+        <v>-5469128.9621176869</v>
       </c>
       <c r="AA45" s="51">
         <f t="shared" si="6"/>
-        <v>-2518299.1299529676</v>
+        <v>-2518299.1007529679</v>
       </c>
       <c r="AB45" s="51">
         <f t="shared" si="6"/>
-        <v>2100135.3360521365</v>
+        <v>2100135.3603721368</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -4164,15 +4154,15 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="51">
         <f t="shared" si="6"/>
-        <v>-5469115.7340191724</v>
+        <v>-5469115.7401591726</v>
       </c>
       <c r="AA48" s="51">
         <f t="shared" si="6"/>
-        <v>-2518271.6259405836</v>
+        <v>-2518271.5967405839</v>
       </c>
       <c r="AB48" s="51">
         <f t="shared" si="6"/>
-        <v>2100234.1305555524</v>
+        <v>2100234.1548755527</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -4375,15 +4365,15 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="51">
         <f t="shared" si="6"/>
-        <v>-5469116.7799074082</v>
+        <v>-5469116.7860474084</v>
       </c>
       <c r="AA51" s="51">
         <f t="shared" si="6"/>
-        <v>-2518209.8420699956</v>
+        <v>-2518209.8128699958</v>
       </c>
       <c r="AB51" s="51">
         <f t="shared" si="6"/>
-        <v>2100318.7586730924</v>
+        <v>2100318.7829930927</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.35">
@@ -4586,27 +4576,27 @@
       <c r="V54" s="50"/>
       <c r="W54" s="50">
         <f>N55-N54</f>
-        <v>-0.11984285805374384</v>
+        <v>-0.10324285831302404</v>
       </c>
       <c r="X54" s="50">
         <f t="shared" ref="X54:Y54" si="9">O55-O54</f>
-        <v>-6.335000041872263E-2</v>
+        <v>-0.14515000022947788</v>
       </c>
       <c r="Y54" s="50">
         <f t="shared" si="9"/>
-        <v>4.9015384167432785E-2</v>
+        <v>-4.4846157543361187E-3</v>
       </c>
       <c r="Z54" s="51">
         <f t="shared" si="6"/>
-        <v>-5469110.4544821968</v>
+        <v>-5469110.460622197</v>
       </c>
       <c r="AA54" s="51">
         <f t="shared" si="6"/>
-        <v>-2518159.6025082306</v>
+        <v>-2518159.5733082308</v>
       </c>
       <c r="AB54" s="51">
         <f t="shared" si="6"/>
-        <v>2100404.7671014583</v>
+        <v>2100404.7914214586</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
@@ -4649,14 +4639,14 @@
       <c r="M55">
         <v>2100404.7623999999</v>
       </c>
-      <c r="N55">
-        <v>-5469110.4715</v>
-      </c>
-      <c r="O55">
-        <v>-2518159.6104000001</v>
-      </c>
-      <c r="P55">
-        <v>2100404.7623999999</v>
+      <c r="N55" s="46">
+        <v>-5469110.4549000002</v>
+      </c>
+      <c r="O55" s="46">
+        <v>-2518159.6921999999</v>
+      </c>
+      <c r="P55" s="46">
+        <v>2100404.7089</v>
       </c>
       <c r="Q55" s="30">
         <f>1/T55</f>
@@ -4684,15 +4674,15 @@
       <c r="Y55" s="50"/>
       <c r="Z55" s="51">
         <f>N55</f>
-        <v>-5469110.4715</v>
+        <v>-5469110.4549000002</v>
       </c>
       <c r="AA55" s="51">
         <f>O55</f>
-        <v>-2518159.6104000001</v>
+        <v>-2518159.6921999999</v>
       </c>
       <c r="AB55" s="51">
         <f>P55</f>
-        <v>2100404.7623999999</v>
+        <v>2100404.7089</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.35">
@@ -4898,15 +4888,15 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="51">
         <f t="shared" si="6"/>
-        <v>-5469109.6255705096</v>
+        <v>-5469109.6317105098</v>
       </c>
       <c r="AA58" s="51">
         <f t="shared" si="6"/>
-        <v>-2518145.3006400485</v>
+        <v>-2518145.2714400487</v>
       </c>
       <c r="AB58" s="51">
         <f t="shared" si="6"/>
-        <v>2100420.2625787472</v>
+        <v>2100420.2868987476</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.35">
@@ -5112,15 +5102,15 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="51">
         <f t="shared" si="6"/>
-        <v>-5469127.158001978</v>
+        <v>-5469127.1641419781</v>
       </c>
       <c r="AA61" s="51">
         <f t="shared" si="6"/>
-        <v>-2518101.0235043843</v>
+        <v>-2518100.9943043846</v>
       </c>
       <c r="AB61" s="51">
         <f t="shared" si="6"/>
-        <v>2100423.4960968429</v>
+        <v>2100423.5204168428</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.35">
@@ -5323,15 +5313,15 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="51">
         <f t="shared" si="6"/>
-        <v>-5469096.2213917216</v>
+        <v>-5469096.2275317218</v>
       </c>
       <c r="AA64" s="51">
         <f t="shared" si="6"/>
-        <v>-2518107.7181248977</v>
+        <v>-2518107.6889248979</v>
       </c>
       <c r="AB64" s="51">
         <f t="shared" si="6"/>
-        <v>2100494.3530213879</v>
+        <v>2100494.3773413883</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.35">
@@ -5579,14 +5569,14 @@
       <c r="M68">
         <v>2100514.2793000001</v>
       </c>
-      <c r="N68">
-        <v>-5469082.4877000004</v>
-      </c>
-      <c r="O68">
-        <v>-2518111.0367000001</v>
-      </c>
-      <c r="P68">
-        <v>2100514.2793000001</v>
+      <c r="N68" s="46">
+        <v>-5469082.4801000003</v>
+      </c>
+      <c r="O68" s="46">
+        <v>-2518111.0745000001</v>
+      </c>
+      <c r="P68" s="46">
+        <v>2100514.2546000001</v>
       </c>
       <c r="Q68" s="30">
         <f>1/T68</f>
@@ -5614,15 +5604,15 @@
       <c r="Y68" s="50"/>
       <c r="Z68" s="51">
         <f>N68</f>
-        <v>-5469082.4877000004</v>
+        <v>-5469082.4801000003</v>
       </c>
       <c r="AA68" s="51">
         <f>O68</f>
-        <v>-2518111.0367000001</v>
+        <v>-2518111.0745000001</v>
       </c>
       <c r="AB68" s="51">
         <f>P68</f>
-        <v>2100514.2793000001</v>
+        <v>2100514.2546000001</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
@@ -5899,15 +5889,15 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="51">
         <f t="shared" si="6"/>
-        <v>-5469068.7599412687</v>
+        <v>-5469068.7660812689</v>
       </c>
       <c r="AA72" s="51">
         <f t="shared" si="6"/>
-        <v>-2518069.6651866315</v>
+        <v>-2518069.6359866317</v>
       </c>
       <c r="AB72" s="51">
         <f t="shared" si="6"/>
-        <v>2100602.8762971899</v>
+        <v>2100602.9006171897</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.35">
@@ -6113,15 +6103,15 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="51">
         <f t="shared" si="6"/>
-        <v>-5469048.7352750544</v>
+        <v>-5469048.7414150545</v>
       </c>
       <c r="AA75" s="51">
         <f t="shared" si="6"/>
-        <v>-2518034.2225082307</v>
+        <v>-2518034.193308231</v>
       </c>
       <c r="AB75" s="51">
         <f t="shared" si="6"/>
-        <v>2100707.3221326321</v>
+        <v>2100707.346452632</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.35">
@@ -6324,15 +6314,15 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="51">
         <f t="shared" si="6"/>
-        <v>-5469048.9091528319</v>
+        <v>-5469048.9152928321</v>
       </c>
       <c r="AA78" s="51">
         <f t="shared" si="6"/>
-        <v>-2517966.6707082302</v>
+        <v>-2517966.6415082305</v>
       </c>
       <c r="AB78" s="51">
         <f t="shared" si="6"/>
-        <v>2100793.1027222481</v>
+        <v>2100793.1270422484</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.35">
@@ -6538,15 +6528,15 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="51">
         <f t="shared" ref="Z81:AB136" si="12">N81+W$8</f>
-        <v>-5469040.1552096708</v>
+        <v>-5469040.161349671</v>
       </c>
       <c r="AA81" s="51">
         <f t="shared" si="12"/>
-        <v>-2517957.0095736152</v>
+        <v>-2517956.9803736154</v>
       </c>
       <c r="AB81" s="51">
         <f t="shared" si="12"/>
-        <v>2100830.6689263666</v>
+        <v>2100830.6932463669</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
@@ -6791,14 +6781,14 @@
       <c r="M85">
         <v>2100551.2869000002</v>
       </c>
-      <c r="N85">
-        <v>-5469070.6467000004</v>
-      </c>
-      <c r="O85">
-        <v>-2518099.7925999998</v>
-      </c>
-      <c r="P85">
-        <v>2100551.2869000002</v>
+      <c r="N85" s="46">
+        <v>-5469070.625</v>
+      </c>
+      <c r="O85" s="46">
+        <v>-2518099.8996000001</v>
+      </c>
+      <c r="P85" s="46">
+        <v>2100551.2168999999</v>
       </c>
       <c r="Q85" s="30">
         <f>1/T85</f>
@@ -6826,15 +6816,15 @@
       <c r="Y85" s="50"/>
       <c r="Z85" s="51">
         <f>N85</f>
-        <v>-5469070.6467000004</v>
+        <v>-5469070.625</v>
       </c>
       <c r="AA85" s="51">
         <f>O85</f>
-        <v>-2518099.7925999998</v>
+        <v>-2518099.8996000001</v>
       </c>
       <c r="AB85" s="51">
         <f>P85</f>
-        <v>2100551.2869000002</v>
+        <v>2100551.2168999999</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -6963,15 +6953,15 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="51">
         <f t="shared" si="12"/>
-        <v>-5469030.0908250548</v>
+        <v>-5469030.096965055</v>
       </c>
       <c r="AA87" s="51">
         <f t="shared" si="12"/>
-        <v>-2517883.3406582307</v>
+        <v>-2517883.3114582309</v>
       </c>
       <c r="AB87" s="51">
         <f t="shared" si="12"/>
-        <v>2100974.2812168431</v>
+        <v>2100974.3055368429</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -7177,15 +7167,15 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="51">
         <f t="shared" si="12"/>
-        <v>-5469021.758617362</v>
+        <v>-5469021.7647573622</v>
       </c>
       <c r="AA90" s="51">
         <f t="shared" si="12"/>
-        <v>-2517836.9131197692</v>
+        <v>-2517836.8839197694</v>
       </c>
       <c r="AB90" s="51">
         <f t="shared" si="12"/>
-        <v>2101073.6057946207</v>
+        <v>2101073.6301146206</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -7314,15 +7304,15 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="51">
         <f t="shared" si="12"/>
-        <v>-5468997.970625055</v>
+        <v>-5468997.9767650552</v>
       </c>
       <c r="AA92" s="51">
         <f t="shared" si="12"/>
-        <v>-2517810.6388582308</v>
+        <v>-2517810.609658231</v>
       </c>
       <c r="AB92" s="51">
         <f t="shared" si="12"/>
-        <v>2101172.6317168428</v>
+        <v>2101172.6560368426</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -7525,27 +7515,27 @@
       <c r="V95" s="50"/>
       <c r="W95" s="50">
         <f>N96-N95</f>
-        <v>-9.1700000688433647E-2</v>
+        <v>-9.3400000594556332E-2</v>
       </c>
       <c r="X95" s="50">
         <f t="shared" ref="X95:Y95" si="13">O96-O95</f>
-        <v>-6.1540000140666962E-2</v>
+        <v>-5.3440000396221876E-2</v>
       </c>
       <c r="Y95" s="50">
         <f t="shared" si="13"/>
-        <v>5.5809999816119671E-2</v>
+        <v>6.1109999660402536E-2</v>
       </c>
       <c r="Z95" s="51">
         <f t="shared" si="12"/>
-        <v>-5468987.8718250543</v>
+        <v>-5468987.8779650545</v>
       </c>
       <c r="AA95" s="51">
         <f t="shared" si="12"/>
-        <v>-2517792.7772182305</v>
+        <v>-2517792.7480182308</v>
       </c>
       <c r="AB95" s="51">
         <f t="shared" si="12"/>
-        <v>2101225.9664068427</v>
+        <v>2101225.990726843</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -7588,14 +7578,14 @@
       <c r="M96">
         <v>2101225.9685</v>
       </c>
-      <c r="N96">
-        <v>-5468987.8607000001</v>
-      </c>
-      <c r="O96">
-        <v>-2517792.7832999998</v>
-      </c>
-      <c r="P96">
-        <v>2101225.9685</v>
+      <c r="N96" s="46">
+        <v>-5468987.8624</v>
+      </c>
+      <c r="O96" s="46">
+        <v>-2517792.7752</v>
+      </c>
+      <c r="P96" s="46">
+        <v>2101225.9737999998</v>
       </c>
       <c r="Q96" s="30">
         <f>1/T96</f>
@@ -7623,15 +7613,15 @@
       <c r="Y96" s="50"/>
       <c r="Z96" s="51">
         <f>N96</f>
-        <v>-5468987.8607000001</v>
+        <v>-5468987.8624</v>
       </c>
       <c r="AA96" s="51">
         <f>O96</f>
-        <v>-2517792.7832999998</v>
+        <v>-2517792.7752</v>
       </c>
       <c r="AB96" s="51">
         <f>P96</f>
-        <v>2101225.9685</v>
+        <v>2101225.9737999998</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -7834,15 +7824,15 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="51">
         <f t="shared" si="12"/>
-        <v>-5468971.5744450558</v>
+        <v>-5468971.580585056</v>
       </c>
       <c r="AA99" s="51">
         <f t="shared" si="12"/>
-        <v>-2517765.1302582305</v>
+        <v>-2517765.1010582307</v>
       </c>
       <c r="AB99" s="51">
         <f t="shared" si="12"/>
-        <v>2101282.0209501758</v>
+        <v>2101282.0452701761</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -8045,27 +8035,27 @@
       <c r="V102" s="50"/>
       <c r="W102" s="50">
         <f>N103-N102</f>
-        <v>-9.8607691936194897E-2</v>
+        <v>-8.3407692611217499E-2</v>
       </c>
       <c r="X102" s="50">
         <f t="shared" ref="X102:Y102" si="14">O103-O102</f>
-        <v>-6.2792307697236538E-2</v>
+        <v>-0.13789230771362782</v>
       </c>
       <c r="Y102" s="50">
         <f t="shared" si="14"/>
-        <v>4.8313043545931578E-2</v>
+        <v>-7.8695639967918396E-4</v>
       </c>
       <c r="Z102" s="51">
         <f t="shared" si="12"/>
-        <v>-5468955.7944173627</v>
+        <v>-5468955.8005573628</v>
       </c>
       <c r="AA102" s="51">
         <f t="shared" si="12"/>
-        <v>-2517712.5107659232</v>
+        <v>-2517712.4815659234</v>
       </c>
       <c r="AB102" s="51">
         <f t="shared" si="12"/>
-        <v>2101353.993903799</v>
+        <v>2101354.0182237993</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.35">
@@ -8108,14 +8098,14 @@
       <c r="M103">
         <v>2101353.9885</v>
       </c>
-      <c r="N103">
-        <v>-5468955.7901999997</v>
-      </c>
-      <c r="O103">
-        <v>-2517712.5181</v>
-      </c>
-      <c r="P103">
-        <v>2101353.9885</v>
+      <c r="N103" s="46">
+        <v>-5468955.7750000004</v>
+      </c>
+      <c r="O103" s="46">
+        <v>-2517712.5932</v>
+      </c>
+      <c r="P103" s="46">
+        <v>2101353.9394</v>
       </c>
       <c r="Q103" s="30">
         <f>1/T103</f>
@@ -8143,15 +8133,15 @@
       <c r="Y103" s="50"/>
       <c r="Z103" s="51">
         <f>N103</f>
-        <v>-5468955.7901999997</v>
+        <v>-5468955.7750000004</v>
       </c>
       <c r="AA103" s="51">
         <f>O103</f>
-        <v>-2517712.5181</v>
+        <v>-2517712.5932</v>
       </c>
       <c r="AB103" s="51">
         <f>P103</f>
-        <v>2101353.9885</v>
+        <v>2101353.9394</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.35">
@@ -8354,15 +8344,15 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="51">
         <f t="shared" si="12"/>
-        <v>-5468931.9393789014</v>
+        <v>-5468931.9455189016</v>
       </c>
       <c r="AA106" s="51">
         <f t="shared" si="12"/>
-        <v>-2517684.7417736156</v>
+        <v>-2517684.7125736158</v>
       </c>
       <c r="AB106" s="51">
         <f t="shared" si="12"/>
-        <v>2101458.2801081473</v>
+        <v>2101458.3044281472</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -8565,27 +8555,27 @@
       <c r="V109" s="50"/>
       <c r="W109" s="50">
         <f>N110-N109</f>
-        <v>-9.4800000078976154E-2</v>
+        <v>-9.1099999845027924E-2</v>
       </c>
       <c r="X109" s="50">
         <f t="shared" ref="X109:Y109" si="15">O110-O109</f>
-        <v>-6.630000052973628E-2</v>
+        <v>-8.4500000346451998E-2</v>
       </c>
       <c r="Y109" s="50">
         <f t="shared" si="15"/>
-        <v>4.1329999919980764E-2</v>
+        <v>2.9430000111460686E-2</v>
       </c>
       <c r="Z109" s="51">
         <f t="shared" si="12"/>
-        <v>-5468913.2245250549</v>
+        <v>-5468913.2306650551</v>
       </c>
       <c r="AA109" s="51">
         <f t="shared" si="12"/>
-        <v>-2517646.2988582305</v>
+        <v>-2517646.2696582307</v>
       </c>
       <c r="AB109" s="51">
         <f t="shared" si="12"/>
-        <v>2101558.4400868425</v>
+        <v>2101558.4644068428</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8628,14 +8618,14 @@
       <c r="M110">
         <v>2101558.4276999999</v>
       </c>
-      <c r="N110">
-        <v>-5468913.2165000001</v>
-      </c>
-      <c r="O110">
-        <v>-2517646.3097000001</v>
-      </c>
-      <c r="P110">
-        <v>2101558.4276999999</v>
+      <c r="N110" s="46">
+        <v>-5468913.2127999999</v>
+      </c>
+      <c r="O110" s="46">
+        <v>-2517646.3278999999</v>
+      </c>
+      <c r="P110" s="46">
+        <v>2101558.4158000001</v>
       </c>
       <c r="Q110" s="30">
         <f>1/T110</f>
@@ -8663,15 +8653,15 @@
       <c r="Y110" s="50"/>
       <c r="Z110" s="51">
         <f>N110</f>
-        <v>-5468913.2165000001</v>
+        <v>-5468913.2127999999</v>
       </c>
       <c r="AA110" s="51">
         <f>O110</f>
-        <v>-2517646.3097000001</v>
+        <v>-2517646.3278999999</v>
       </c>
       <c r="AB110" s="51">
         <f>P110</f>
-        <v>2101558.4276999999</v>
+        <v>2101558.4158000001</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -8874,15 +8864,15 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="51">
         <f t="shared" si="12"/>
-        <v>-5468913.5500183888</v>
+        <v>-5468913.556158389</v>
       </c>
       <c r="AA113" s="51">
         <f t="shared" si="12"/>
-        <v>-2517604.3206648976</v>
+        <v>-2517604.2914648978</v>
       </c>
       <c r="AB113" s="51">
         <f t="shared" si="12"/>
-        <v>2101614.0166899199</v>
+        <v>2101614.0410099197</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9082,27 +9072,27 @@
       <c r="V116" s="50"/>
       <c r="W116" s="50">
         <f>N117-N116</f>
-        <v>-7.8300000168383121E-2</v>
+        <v>-7.3799999430775642E-2</v>
       </c>
       <c r="X116" s="50">
         <f t="shared" ref="X116:Y116" si="16">O117-O116</f>
-        <v>-3.7900000344961882E-2</v>
+        <v>-6.0200000181794167E-2</v>
       </c>
       <c r="Y116" s="50">
         <f t="shared" si="16"/>
-        <v>4.0900000371038914E-2</v>
+        <v>2.630000002682209E-2</v>
       </c>
       <c r="Z116" s="51">
         <f t="shared" si="12"/>
-        <v>-5468888.6915250551</v>
+        <v>-5468888.6976650553</v>
       </c>
       <c r="AA116" s="51">
         <f t="shared" si="12"/>
-        <v>-2517620.9047582308</v>
+        <v>-2517620.875558231</v>
       </c>
       <c r="AB116" s="51">
         <f t="shared" si="12"/>
-        <v>2101677.0500168428</v>
+        <v>2101677.0743368426</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.35">
@@ -9145,14 +9135,14 @@
       <c r="M117">
         <v>2101677.0372000001</v>
       </c>
-      <c r="N117">
-        <v>-5468888.6670000004</v>
-      </c>
-      <c r="O117">
-        <v>-2517620.8872000002</v>
-      </c>
-      <c r="P117">
-        <v>2101677.0372000001</v>
+      <c r="N117" s="46">
+        <v>-5468888.6624999996</v>
+      </c>
+      <c r="O117" s="46">
+        <v>-2517620.9095000001</v>
+      </c>
+      <c r="P117" s="46">
+        <v>2101677.0225999998</v>
       </c>
       <c r="Q117" s="30">
         <f>1/T117</f>
@@ -9180,15 +9170,15 @@
       <c r="Y117" s="50"/>
       <c r="Z117" s="51">
         <f>N117</f>
-        <v>-5468888.6670000004</v>
+        <v>-5468888.6624999996</v>
       </c>
       <c r="AA117" s="51">
         <f>O117</f>
-        <v>-2517620.8872000002</v>
+        <v>-2517620.9095000001</v>
       </c>
       <c r="AB117" s="51">
         <f>P117</f>
-        <v>2101677.0372000001</v>
+        <v>2101677.0225999998</v>
       </c>
     </row>
     <row r="118" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9391,15 +9381,15 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="51">
         <f t="shared" si="12"/>
-        <v>-5468890.9543350544</v>
+        <v>-5468890.9604750546</v>
       </c>
       <c r="AA120" s="51">
         <f t="shared" si="12"/>
-        <v>-2517581.3394648973</v>
+        <v>-2517581.3102648975</v>
       </c>
       <c r="AB120" s="51">
         <f t="shared" si="12"/>
-        <v>2101734.5690227244</v>
+        <v>2101734.5933427247</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9528,15 +9518,15 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="51">
         <f t="shared" si="12"/>
-        <v>-5468867.7752250545</v>
+        <v>-5468867.7813650547</v>
       </c>
       <c r="AA122" s="51">
         <f t="shared" si="12"/>
-        <v>-2517570.1214582305</v>
+        <v>-2517570.0922582308</v>
       </c>
       <c r="AB122" s="51">
         <f t="shared" si="12"/>
-        <v>2101806.6629168428</v>
+        <v>2101806.6872368427</v>
       </c>
     </row>
     <row r="123" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9665,15 +9655,15 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="51">
         <f t="shared" si="12"/>
-        <v>-5469403.2137250546</v>
+        <v>-5469403.2198650548</v>
       </c>
       <c r="AA124" s="51">
         <f t="shared" si="12"/>
-        <v>-2518445.2506582309</v>
+        <v>-2518445.2214582311</v>
       </c>
       <c r="AB124" s="51">
         <f t="shared" si="12"/>
-        <v>2099193.5983168427</v>
+        <v>2099193.622636843</v>
       </c>
     </row>
     <row r="125" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -9799,27 +9789,27 @@
       <c r="V126" s="50"/>
       <c r="W126" s="50">
         <f>N127-N126</f>
-        <v>-0.14010000042617321</v>
+        <v>-0.18610000051558018</v>
       </c>
       <c r="X126" s="50">
         <f t="shared" ref="X126:Y126" si="17">O127-O126</f>
-        <v>-7.7800000552088022E-2</v>
+        <v>0.14829999953508377</v>
       </c>
       <c r="Y126" s="50">
         <f t="shared" si="17"/>
-        <v>6.9699999876320362E-2</v>
+        <v>0.2178000002168119</v>
       </c>
       <c r="Z126" s="51">
         <f t="shared" si="12"/>
-        <v>-5469456.2538250545</v>
+        <v>-5469456.2599650547</v>
       </c>
       <c r="AA126" s="51">
         <f t="shared" si="12"/>
-        <v>-2518361.1699582306</v>
+        <v>-2518361.1407582308</v>
       </c>
       <c r="AB126" s="51">
         <f t="shared" si="12"/>
-        <v>2099146.394716843</v>
+        <v>2099146.4190368429</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.35">
@@ -9862,14 +9852,14 @@
       <c r="M127">
         <v>2099146.4106999999</v>
       </c>
-      <c r="N127">
-        <v>-5469456.2911</v>
-      </c>
-      <c r="O127">
-        <v>-2518361.1923000002</v>
-      </c>
-      <c r="P127">
-        <v>2099146.4106999999</v>
+      <c r="N127" s="46">
+        <v>-5469456.3371000001</v>
+      </c>
+      <c r="O127" s="46">
+        <v>-2518360.9662000001</v>
+      </c>
+      <c r="P127" s="46">
+        <v>2099146.5588000002</v>
       </c>
       <c r="Q127" s="30">
         <f>1/T127</f>
@@ -9897,15 +9887,15 @@
       <c r="Y127" s="50"/>
       <c r="Z127" s="51">
         <f>N127</f>
-        <v>-5469456.2911</v>
+        <v>-5469456.3371000001</v>
       </c>
       <c r="AA127" s="51">
         <f>O127</f>
-        <v>-2518361.1923000002</v>
+        <v>-2518360.9662000001</v>
       </c>
       <c r="AB127" s="51">
         <f>P127</f>
-        <v>2099146.4106999999</v>
+        <v>2099146.5588000002</v>
       </c>
     </row>
     <row r="128" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -10034,15 +10024,15 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="51">
         <f t="shared" si="12"/>
-        <v>-5469515.4121250547</v>
+        <v>-5469515.4182650549</v>
       </c>
       <c r="AA129" s="51">
         <f t="shared" si="12"/>
-        <v>-2518279.2825582307</v>
+        <v>-2518279.2533582309</v>
       </c>
       <c r="AB129" s="51">
         <f t="shared" si="12"/>
-        <v>2099068.4487168426</v>
+        <v>2099068.4730368429</v>
       </c>
     </row>
     <row r="130" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -10168,27 +10158,27 @@
       <c r="V131" s="50"/>
       <c r="W131" s="50">
         <f>N132-N131</f>
-        <v>-0.11499999929219484</v>
+        <v>-0.1531999995931983</v>
       </c>
       <c r="X131" s="50">
         <f t="shared" ref="X131:Y131" si="18">O132-O131</f>
-        <v>-6.5900000277906656E-2</v>
+        <v>0.1223999997600913</v>
       </c>
       <c r="Y131" s="50">
         <f t="shared" si="18"/>
-        <v>5.1599999889731407E-2</v>
+        <v>0.17489999998360872</v>
       </c>
       <c r="Z131" s="51">
         <f t="shared" si="12"/>
-        <v>-5469583.3257250553</v>
+        <v>-5469583.3318650555</v>
       </c>
       <c r="AA131" s="51">
         <f t="shared" si="12"/>
-        <v>-2518210.6299582305</v>
+        <v>-2518210.6007582308</v>
       </c>
       <c r="AB131" s="51">
         <f t="shared" si="12"/>
-        <v>2098964.0295168431</v>
+        <v>2098964.053836843</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.35">
@@ -10231,14 +10221,14 @@
       <c r="M132">
         <v>2098964.0274</v>
       </c>
-      <c r="N132">
-        <v>-5469583.3378999997</v>
-      </c>
-      <c r="O132">
-        <v>-2518210.6403999999</v>
-      </c>
-      <c r="P132">
-        <v>2098964.0274</v>
+      <c r="N132" s="46">
+        <v>-5469583.3761</v>
+      </c>
+      <c r="O132" s="46">
+        <v>-2518210.4520999999</v>
+      </c>
+      <c r="P132" s="46">
+        <v>2098964.1507000001</v>
       </c>
       <c r="Q132" s="30">
         <f>1/T132</f>
@@ -10266,15 +10256,15 @@
       <c r="Y132" s="50"/>
       <c r="Z132" s="51">
         <f>N132</f>
-        <v>-5469583.3378999997</v>
+        <v>-5469583.3761</v>
       </c>
       <c r="AA132" s="51">
         <f>O132</f>
-        <v>-2518210.6403999999</v>
+        <v>-2518210.4520999999</v>
       </c>
       <c r="AB132" s="51">
         <f>P132</f>
-        <v>2098964.0274</v>
+        <v>2098964.1507000001</v>
       </c>
     </row>
     <row r="133" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -10403,15 +10393,15 @@
       <c r="Y134" s="6"/>
       <c r="Z134" s="51">
         <f t="shared" si="12"/>
-        <v>-5469620.9595250553</v>
+        <v>-5469620.9656650554</v>
       </c>
       <c r="AA134" s="51">
         <f t="shared" si="12"/>
-        <v>-2518190.1608582307</v>
+        <v>-2518190.1316582309</v>
       </c>
       <c r="AB134" s="51">
         <f t="shared" si="12"/>
-        <v>2098872.1072168425</v>
+        <v>2098872.1315368428</v>
       </c>
     </row>
     <row r="135" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -10537,27 +10527,27 @@
       <c r="V136" s="50"/>
       <c r="W136" s="50">
         <f>N137-N136</f>
-        <v>-9.8500000312924385E-2</v>
+        <v>-0.14440000057220459</v>
       </c>
       <c r="X136" s="50">
         <f t="shared" ref="X136:Y136" si="19">O137-O136</f>
-        <v>-6.2300000339746475E-2</v>
+        <v>0.16399999940767884</v>
       </c>
       <c r="Y136" s="50">
         <f t="shared" si="19"/>
-        <v>5.6400000117719173E-2</v>
+        <v>0.20459999982267618</v>
       </c>
       <c r="Z136" s="51">
         <f t="shared" si="12"/>
-        <v>-5469661.8415250545</v>
+        <v>-5469661.8476650547</v>
       </c>
       <c r="AA136" s="51">
         <f t="shared" si="12"/>
-        <v>-2518141.6968582305</v>
+        <v>-2518141.6676582308</v>
       </c>
       <c r="AB136" s="51">
         <f t="shared" si="12"/>
-        <v>2098787.563616843</v>
+        <v>2098787.5879368428</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.35">
@@ -10600,14 +10590,14 @@
       <c r="M137">
         <v>2098787.5663000001</v>
       </c>
-      <c r="N137">
-        <v>-5469661.8372</v>
-      </c>
-      <c r="O137">
-        <v>-2518141.7037</v>
-      </c>
-      <c r="P137">
-        <v>2098787.5663000001</v>
+      <c r="N137" s="46">
+        <v>-5469661.8831000002</v>
+      </c>
+      <c r="O137" s="46">
+        <v>-2518141.4774000002</v>
+      </c>
+      <c r="P137" s="46">
+        <v>2098787.7144999998</v>
       </c>
       <c r="Q137" s="30">
         <f>1/T137</f>
@@ -10635,15 +10625,15 @@
       <c r="Y137" s="50"/>
       <c r="Z137" s="51">
         <f>N137</f>
-        <v>-5469661.8372</v>
+        <v>-5469661.8831000002</v>
       </c>
       <c r="AA137" s="51">
         <f>O137</f>
-        <v>-2518141.7037</v>
+        <v>-2518141.4774000002</v>
       </c>
       <c r="AB137" s="51">
         <f>P137</f>
-        <v>2098787.5663000001</v>
+        <v>2098787.7144999998</v>
       </c>
     </row>
   </sheetData>
@@ -10663,11 +10653,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -10683,28 +10680,28 @@
         <v>31</v>
       </c>
       <c r="E1">
-        <v>-5469242.8503684411</v>
+        <v>-5469242.8421984408</v>
       </c>
       <c r="F1">
-        <v>-2518480.8290407076</v>
+        <v>-2518480.8789507076</v>
       </c>
       <c r="G1">
-        <v>2099557.5116096227</v>
+        <v>2099557.5307096229</v>
       </c>
       <c r="H1">
-        <v>19.343183640664499</v>
+        <v>19.343183761763999</v>
       </c>
       <c r="I1">
-        <v>-155.274841471825</v>
+        <v>-155.274841007822</v>
       </c>
       <c r="J1">
-        <v>985.88797674141802</v>
+        <v>985.90714639611497</v>
       </c>
       <c r="K1">
-        <v>261018.949207211</v>
+        <v>261018.99814915599</v>
       </c>
       <c r="L1">
-        <v>2140372.6504938598</v>
+        <v>2140372.6632604101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -10721,28 +10718,28 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>-5469283.5645245295</v>
+        <v>-5469283.5563545292</v>
       </c>
       <c r="F2">
-        <v>-2518480.6212061257</v>
+        <v>-2518480.6711161258</v>
       </c>
       <c r="G2">
-        <v>2099460.9851026325</v>
+        <v>2099461.0042026327</v>
       </c>
       <c r="H2">
-        <v>19.342250611103701</v>
+        <v>19.342250734923802</v>
       </c>
       <c r="I2">
-        <v>-155.27500531653999</v>
+        <v>-155.27500484855901</v>
       </c>
       <c r="J2">
-        <v>988.72937154769897</v>
+        <v>988.74768379609998</v>
       </c>
       <c r="K2">
-        <v>261000.37022119499</v>
+        <v>261000.41958541801</v>
       </c>
       <c r="L2">
-        <v>2140269.57157647</v>
+        <v>2140269.5846387199</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -10759,28 +10756,28 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>-5469324.1436779127</v>
+        <v>-5469324.1355079124</v>
       </c>
       <c r="F3">
-        <v>-2518494.8693339452</v>
+        <v>-2518494.9192439453</v>
       </c>
       <c r="G3">
-        <v>2099346.9328868426</v>
+        <v>2099346.9519868428</v>
       </c>
       <c r="H3">
-        <v>19.3411505062667</v>
+        <v>19.341150627372802</v>
       </c>
       <c r="I3">
-        <v>-155.27504367233101</v>
+        <v>-155.27504320833299</v>
       </c>
       <c r="J3">
-        <v>991.35691856127198</v>
+        <v>991.37608757428802</v>
       </c>
       <c r="K3">
-        <v>260994.73640341699</v>
+        <v>260994.78534538401</v>
       </c>
       <c r="L3">
-        <v>2140147.8204711401</v>
+        <v>2140147.8332384299</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -10797,28 +10794,28 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>-5469345.4765600553</v>
+        <v>-5469345.468390055</v>
       </c>
       <c r="F4">
-        <v>-2518520.0586065645</v>
+        <v>-2518520.1085165646</v>
       </c>
       <c r="G4">
-        <v>2099254.9916168428</v>
+        <v>2099255.010716843</v>
       </c>
       <c r="H4">
-        <v>19.340277448454501</v>
+        <v>19.340277572280101</v>
       </c>
       <c r="I4">
-        <v>-155.27491085652599</v>
+        <v>-155.27491038855101</v>
       </c>
       <c r="J4">
-        <v>989.13268083427101</v>
+        <v>989.15099268592905</v>
       </c>
       <c r="K4">
-        <v>261007.42337466101</v>
+        <v>261007.47273884399</v>
       </c>
       <c r="L4">
-        <v>2140050.9714376898</v>
+        <v>2140050.9845006401</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -10835,28 +10832,28 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>-5469211.3436646862</v>
+        <v>-5469211.3354946859</v>
       </c>
       <c r="F5">
-        <v>-2518466.7600778607</v>
+        <v>-2518466.8099878607</v>
       </c>
       <c r="G5">
-        <v>2099657.2332968428</v>
+        <v>2099657.2523968429</v>
       </c>
       <c r="H5">
-        <v>19.344136731400599</v>
+        <v>19.344136855214899</v>
       </c>
       <c r="I5">
-        <v>-155.27483767823199</v>
+        <v>-155.27483721024501</v>
       </c>
       <c r="J5">
-        <v>986.36434564646299</v>
+        <v>986.38265848159801</v>
       </c>
       <c r="K5">
-        <v>261020.73643696701</v>
+        <v>261020.78580116501</v>
       </c>
       <c r="L5">
-        <v>2140478.1719295499</v>
+        <v>2140478.1849911502</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -10873,28 +10870,28 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>-5469178.4257350555</v>
+        <v>-5469178.4175650552</v>
       </c>
       <c r="F6">
-        <v>-2518469.7254482307</v>
+        <v>-2518469.7753582308</v>
       </c>
       <c r="G6">
-        <v>2099754.8503368427</v>
+        <v>2099754.8694368429</v>
       </c>
       <c r="H6">
-        <v>19.345054410839399</v>
+        <v>19.345054531932799</v>
       </c>
       <c r="I6">
-        <v>-155.274681033869</v>
+        <v>-155.274680569861</v>
       </c>
       <c r="J6">
-        <v>991.65786981117003</v>
+        <v>991.67704003024903</v>
       </c>
       <c r="K6">
-        <v>261038.53615814401</v>
+        <v>261038.58509999601</v>
       </c>
       <c r="L6">
-        <v>2140579.5612374898</v>
+        <v>2140579.57400335</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -10911,28 +10908,28 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>-5469170.2204999998</v>
+        <v>-5469170.2220000001</v>
       </c>
       <c r="F7">
-        <v>-2518419.9796000002</v>
+        <v>-2518419.9720000001</v>
       </c>
       <c r="G7">
-        <v>2099831.9887000001</v>
+        <v>2099831.9937</v>
       </c>
       <c r="H7">
-        <v>19.345796369951799</v>
+        <v>19.3457964198575</v>
       </c>
       <c r="I7">
-        <v>-155.27507834177399</v>
+        <v>-155.275078414901</v>
       </c>
       <c r="J7">
-        <v>990.54728215932903</v>
+        <v>990.54663837701105</v>
       </c>
       <c r="K7">
-        <v>260997.86178482199</v>
+        <v>260997.85417217799</v>
       </c>
       <c r="L7">
-        <v>2140662.2608172302</v>
+        <v>2140662.2664439701</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -10987,28 +10984,28 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>-5469158.3202</v>
+        <v>-5469158.3042000001</v>
       </c>
       <c r="F9">
-        <v>-2518324.2588999998</v>
+        <v>-2518324.338</v>
       </c>
       <c r="G9">
-        <v>2100028.8536</v>
+        <v>2100028.8018</v>
       </c>
       <c r="H9">
-        <v>19.347626249324801</v>
+        <v>19.347625750785799</v>
       </c>
       <c r="I9">
-        <v>-155.275858337074</v>
+        <v>-155.27585759055501</v>
       </c>
       <c r="J9">
-        <v>1007.7907523755</v>
+        <v>1007.79098801594</v>
       </c>
       <c r="K9">
-        <v>260918.55514920101</v>
+        <v>260918.63287751001</v>
       </c>
       <c r="L9">
-        <v>2140865.9451836902</v>
+        <v>2140865.88895217</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -11025,28 +11022,28 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>-5469128.9702876871</v>
+        <v>-5469128.9621176869</v>
       </c>
       <c r="F10">
-        <v>-2518299.0508429678</v>
+        <v>-2518299.1007529679</v>
       </c>
       <c r="G10">
-        <v>2100135.3412721367</v>
+        <v>2100135.3603721368</v>
       </c>
       <c r="H10">
-        <v>19.3486450782326</v>
+        <v>19.348645199318</v>
       </c>
       <c r="I10">
-        <v>-155.27595941106901</v>
+        <v>-155.27595894704899</v>
       </c>
       <c r="J10">
-        <v>1007.96898660529</v>
+        <v>1007.98815663904</v>
       </c>
       <c r="K10">
-        <v>260909.41819427401</v>
+        <v>260909.467136458</v>
       </c>
       <c r="L10">
-        <v>2140978.89040739</v>
+        <v>2140978.9031719002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -11063,28 +11060,28 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>-5469115.7483291728</v>
+        <v>-5469115.7401591726</v>
       </c>
       <c r="F11">
-        <v>-2518271.5468305838</v>
+        <v>-2518271.5967405839</v>
       </c>
       <c r="G11">
-        <v>2100234.1357755526</v>
+        <v>2100234.1548755527</v>
       </c>
       <c r="H11">
-        <v>19.349557387256301</v>
+        <v>19.3495575083391</v>
       </c>
       <c r="I11">
-        <v>-155.27614452161899</v>
+        <v>-155.27614405759701</v>
       </c>
       <c r="J11">
-        <v>1018.51670856494</v>
+        <v>1018.53587866481</v>
       </c>
       <c r="K11">
-        <v>260891.29445084199</v>
+        <v>260891.34339301099</v>
       </c>
       <c r="L11">
-        <v>2141080.1580184102</v>
+        <v>2141080.1707825698</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -11101,28 +11098,28 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>-5469116.7942174086</v>
+        <v>-5469116.7860474084</v>
       </c>
       <c r="F12">
-        <v>-2518209.7629599958</v>
+        <v>-2518209.8128699958</v>
       </c>
       <c r="G12">
-        <v>2100318.7638930925</v>
+        <v>2100318.7829930927</v>
       </c>
       <c r="H12">
-        <v>19.350353082745901</v>
+        <v>19.350353203827598</v>
       </c>
       <c r="I12">
-        <v>-155.27668272569301</v>
+        <v>-155.27668226166799</v>
       </c>
       <c r="J12">
-        <v>1023.07262761891</v>
+        <v>1023.09179747012</v>
       </c>
       <c r="K12">
-        <v>260835.893327534</v>
+        <v>260835.94226985899</v>
       </c>
       <c r="L12">
-        <v>2141169.0029394501</v>
+        <v>2141169.0157033098</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -11139,28 +11136,28 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>-5469110.4715</v>
+        <v>-5469110.4549000002</v>
       </c>
       <c r="F13">
-        <v>-2518159.6104000001</v>
+        <v>-2518159.6921999999</v>
       </c>
       <c r="G13">
-        <v>2100404.7623999999</v>
+        <v>2100404.7089</v>
       </c>
       <c r="H13">
-        <v>19.351165922290601</v>
+        <v>19.351165414199698</v>
       </c>
       <c r="I13">
-        <v>-155.27709107464801</v>
+        <v>-155.27709029819999</v>
       </c>
       <c r="J13">
-        <v>1026.3592800870499</v>
+        <v>1026.3595061516401</v>
       </c>
       <c r="K13">
-        <v>260794.16457393399</v>
+        <v>260794.245431444</v>
       </c>
       <c r="L13">
-        <v>2141259.5664810399</v>
+        <v>2141259.5091496902</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -11177,28 +11174,28 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>-5469109.63988051</v>
+        <v>-5469109.6317105098</v>
       </c>
       <c r="F14">
-        <v>-2518145.2215300486</v>
+        <v>-2518145.2714400487</v>
       </c>
       <c r="G14">
-        <v>2100420.2677987474</v>
+        <v>2100420.2868987476</v>
       </c>
       <c r="H14">
-        <v>19.351318335909301</v>
+        <v>19.351318458241199</v>
       </c>
       <c r="I14">
-        <v>-155.27721213025399</v>
+        <v>-155.27721167486899</v>
       </c>
       <c r="J14">
-        <v>1025.1067521851501</v>
+        <v>1025.1255272375399</v>
       </c>
       <c r="K14">
-        <v>260781.66492095101</v>
+        <v>260781.71295687501</v>
       </c>
       <c r="L14">
-        <v>2141276.6094574202</v>
+        <v>2141276.6223714799</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -11215,28 +11212,28 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>-5469127.1723119784</v>
+        <v>-5469127.1641419781</v>
       </c>
       <c r="F15">
-        <v>-2518100.9443943845</v>
+        <v>-2518100.9943043846</v>
       </c>
       <c r="G15">
-        <v>2100423.5013168426</v>
+        <v>2100423.5204168428</v>
       </c>
       <c r="H15">
-        <v>19.351353648384901</v>
+        <v>19.351353769466101</v>
       </c>
       <c r="I15">
-        <v>-155.27766463569901</v>
+        <v>-155.27766417166899</v>
       </c>
       <c r="J15">
-        <v>1023.73145822342</v>
+        <v>1023.75062752143</v>
       </c>
       <c r="K15">
-        <v>260734.161632245</v>
+        <v>260734.21057490399</v>
       </c>
       <c r="L15">
-        <v>2141281.1459679599</v>
+        <v>2141281.1587314499</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -11253,28 +11250,28 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>-5469096.2357017221</v>
+        <v>-5469096.2275317218</v>
       </c>
       <c r="F16">
-        <v>-2518107.6390148979</v>
+        <v>-2518107.6889248979</v>
       </c>
       <c r="G16">
-        <v>2100494.3582413881</v>
+        <v>2100494.3773413883</v>
       </c>
       <c r="H16">
-        <v>19.3520332134492</v>
+        <v>19.352033334527899</v>
       </c>
       <c r="I16">
-        <v>-155.27748364527301</v>
+        <v>-155.277483181241</v>
       </c>
       <c r="J16">
-        <v>1023.33991729468</v>
+        <v>1023.3590868981599</v>
       </c>
       <c r="K16">
-        <v>260754.17391335801</v>
+        <v>260754.22285596401</v>
       </c>
       <c r="L16">
-        <v>2141356.13724129</v>
+        <v>2141356.1500045299</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -11291,28 +11288,28 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>-5469082.4877000004</v>
+        <v>-5469082.4801000003</v>
       </c>
       <c r="F17">
-        <v>-2518111.0367000001</v>
+        <v>-2518111.0745000001</v>
       </c>
       <c r="G17">
-        <v>2100514.2793000001</v>
+        <v>2100514.2546000001</v>
       </c>
       <c r="H17">
-        <v>19.352236102552101</v>
+        <v>19.352235872207899</v>
       </c>
       <c r="I17">
-        <v>-155.27739955834701</v>
+        <v>-155.277399198041</v>
       </c>
       <c r="J17">
-        <v>1019.49969475716</v>
+        <v>1019.4998802170199</v>
       </c>
       <c r="K17">
-        <v>260763.306801959</v>
+        <v>260763.34433100701</v>
       </c>
       <c r="L17">
-        <v>2141378.4848148702</v>
+        <v>2141378.4588119802</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -11329,28 +11326,28 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>-5469068.7742512692</v>
+        <v>-5469068.7660812689</v>
       </c>
       <c r="F18">
-        <v>-2518069.5860766317</v>
+        <v>-2518069.6359866317</v>
       </c>
       <c r="G18">
-        <v>2100602.8815171896</v>
+        <v>2100602.9006171897</v>
       </c>
       <c r="H18">
-        <v>19.353080343827799</v>
+        <v>19.353080464903901</v>
       </c>
       <c r="I18">
-        <v>-155.277703276963</v>
+        <v>-155.277702812927</v>
       </c>
       <c r="J18">
-        <v>1020.75169641618</v>
+        <v>1020.77086608671</v>
       </c>
       <c r="K18">
-        <v>260732.62056243699</v>
+        <v>260732.66950514101</v>
       </c>
       <c r="L18">
-        <v>2141472.3805193501</v>
+        <v>2141472.39328221</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -11367,28 +11364,28 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>-5469048.7495850548</v>
+        <v>-5469048.7414150545</v>
       </c>
       <c r="F19">
-        <v>-2518034.1433982309</v>
+        <v>-2518034.193308231</v>
       </c>
       <c r="G19">
-        <v>2100707.3273526318</v>
+        <v>2100707.346452632</v>
       </c>
       <c r="H19">
-        <v>19.3540692228372</v>
+        <v>19.354069346629899</v>
       </c>
       <c r="I19">
-        <v>-155.27792995277801</v>
+        <v>-155.27792948475999</v>
       </c>
       <c r="J19">
-        <v>1024.2182145668201</v>
+        <v>1024.2365272734301</v>
       </c>
       <c r="K19">
-        <v>260710.24228847999</v>
+        <v>260710.29165344901</v>
       </c>
       <c r="L19">
-        <v>2141582.1839869502</v>
+        <v>2141582.1970449798</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -11405,28 +11402,28 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>-5469048.9234628323</v>
+        <v>-5469048.9152928321</v>
       </c>
       <c r="F20">
-        <v>-2517966.5915982304</v>
+        <v>-2517966.6415082305</v>
       </c>
       <c r="G20">
-        <v>2100793.1079422482</v>
+        <v>2100793.1270422484</v>
       </c>
       <c r="H20">
-        <v>19.354884327737601</v>
+        <v>19.3548844488102</v>
       </c>
       <c r="I20">
-        <v>-155.278514554585</v>
+        <v>-155.27851409054301</v>
       </c>
       <c r="J20">
-        <v>1026.14118440263</v>
+        <v>1026.16035384219</v>
       </c>
       <c r="K20">
-        <v>260649.996241744</v>
+        <v>260650.04518469301</v>
       </c>
       <c r="L20">
-        <v>2141673.2430860498</v>
+        <v>2141673.2558482401</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -11452,19 +11449,19 @@
         <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -11481,28 +11478,28 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>-5469070.6467000004</v>
+        <v>-5469070.625</v>
       </c>
       <c r="F22">
-        <v>-2518099.7925999998</v>
+        <v>-2518099.8996000001</v>
       </c>
       <c r="G22">
-        <v>2100551.2869000002</v>
+        <v>2100551.2168999999</v>
       </c>
       <c r="H22">
-        <v>19.3525977501928</v>
+        <v>19.352597079528898</v>
       </c>
       <c r="I22">
-        <v>-155.27744962453099</v>
+        <v>-155.277448612077</v>
       </c>
       <c r="J22">
-        <v>1017.1785206450101</v>
+        <v>1017.17869109754</v>
       </c>
       <c r="K22">
-        <v>260758.57297475799</v>
+        <v>260758.678396353</v>
       </c>
       <c r="L22">
-        <v>2141418.59605172</v>
+        <v>2141418.5203930498</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -11519,28 +11516,28 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>-5469030.1051350553</v>
+        <v>-5469030.096965055</v>
       </c>
       <c r="F23">
-        <v>-2517883.2615482309</v>
+        <v>-2517883.3114582309</v>
       </c>
       <c r="G23">
-        <v>2100974.2864368428</v>
+        <v>2100974.3055368429</v>
       </c>
       <c r="H23">
-        <v>19.3565837727492</v>
+        <v>19.356583903591801</v>
       </c>
       <c r="I23">
-        <v>-155.279159979973</v>
+        <v>-155.27915952456999</v>
       </c>
       <c r="J23">
-        <v>1037.1830293880801</v>
+        <v>1037.20213559642</v>
       </c>
       <c r="K23">
-        <v>260584.650541907</v>
+        <v>260584.69859086501</v>
       </c>
       <c r="L23">
-        <v>2141862.3016945198</v>
+        <v>2141862.3155502002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -11557,28 +11554,28 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>-5469021.7729273625</v>
+        <v>-5469021.7647573622</v>
       </c>
       <c r="F24">
-        <v>-2517836.8340097694</v>
+        <v>-2517836.8839197694</v>
       </c>
       <c r="G24">
-        <v>2101073.6110146204</v>
+        <v>2101073.6301146206</v>
       </c>
       <c r="H24">
-        <v>19.357510971419</v>
+        <v>19.357511092485801</v>
       </c>
       <c r="I24">
-        <v>-155.27952815554099</v>
+        <v>-155.27952769149101</v>
       </c>
       <c r="J24">
-        <v>1044.6457082265999</v>
+        <v>1044.66487746965</v>
       </c>
       <c r="K24">
-        <v>260547.31385145901</v>
+        <v>260547.36279462799</v>
       </c>
       <c r="L24">
-        <v>2141965.47242394</v>
+        <v>2141965.4851851398</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -11595,28 +11592,28 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>-5468997.9849350555</v>
+        <v>-5468997.9767650552</v>
       </c>
       <c r="F25">
-        <v>-2517810.559748231</v>
+        <v>-2517810.609658231</v>
       </c>
       <c r="G25">
-        <v>2101172.6369368425</v>
+        <v>2101172.6560368426</v>
       </c>
       <c r="H25">
-        <v>19.3584524197062</v>
+        <v>19.3584525407705</v>
       </c>
       <c r="I25">
-        <v>-155.27966060745001</v>
+        <v>-155.279660143397</v>
       </c>
       <c r="J25">
-        <v>1046.7169576045101</v>
+        <v>1046.7361269611899</v>
       </c>
       <c r="K25">
-        <v>260534.77015855399</v>
+        <v>260534.81910175801</v>
       </c>
       <c r="L25">
-        <v>2142069.89411951</v>
+        <v>2142069.9068803601</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -11633,28 +11630,28 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>-5468987.8607000001</v>
+        <v>-5468987.8624</v>
       </c>
       <c r="F26">
-        <v>-2517792.7832999998</v>
+        <v>-2517792.7752</v>
       </c>
       <c r="G26">
-        <v>2101225.9685</v>
+        <v>2101225.9737999998</v>
       </c>
       <c r="H26">
-        <v>19.358956683140601</v>
+        <v>19.3589567330453</v>
       </c>
       <c r="I26">
-        <v>-155.27977398770301</v>
+        <v>-155.27977406083701</v>
       </c>
       <c r="J26">
-        <v>1048.7053873324801</v>
+        <v>1048.7047454128001</v>
       </c>
       <c r="K26">
-        <v>260523.592074468</v>
+        <v>260523.584461872</v>
       </c>
       <c r="L26">
-        <v>2142125.8838759498</v>
+        <v>2142125.8895028601</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -11671,28 +11668,28 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>-5468971.5887550563</v>
+        <v>-5468971.580585056</v>
       </c>
       <c r="F27">
-        <v>-2517765.0511482307</v>
+        <v>-2517765.1010582307</v>
       </c>
       <c r="G27">
-        <v>2101282.026170176</v>
+        <v>2101282.0452701761</v>
       </c>
       <c r="H27">
-        <v>19.359513353016901</v>
+        <v>19.359513474078799</v>
       </c>
       <c r="I27">
-        <v>-155.279948956612</v>
+        <v>-155.27994849255501</v>
       </c>
       <c r="J27">
-        <v>1042.40116644464</v>
+        <v>1042.4203358171501</v>
       </c>
       <c r="K27">
-        <v>260506.01848591401</v>
+        <v>260506.067429249</v>
       </c>
       <c r="L27">
-        <v>2142187.7615609099</v>
+        <v>2142187.7743213801</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -11709,28 +11706,28 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>-5468955.7901999997</v>
+        <v>-5468955.7750000004</v>
       </c>
       <c r="F28">
-        <v>-2517712.5181</v>
+        <v>-2517712.5932</v>
       </c>
       <c r="G28">
-        <v>2101353.9885</v>
+        <v>2101353.9394</v>
       </c>
       <c r="H28">
-        <v>19.360235334402802</v>
+        <v>19.360234855216</v>
       </c>
       <c r="I28">
-        <v>-155.28034020074401</v>
+        <v>-155.28033949271401</v>
       </c>
       <c r="J28">
-        <v>1031.9910440808201</v>
+        <v>1031.9912036713199</v>
       </c>
       <c r="K28">
-        <v>260465.95899347001</v>
+        <v>260466.03269761501</v>
       </c>
       <c r="L28">
-        <v>2142268.2427430199</v>
+        <v>2142268.1887047798</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -11747,28 +11744,28 @@
         <v>31</v>
       </c>
       <c r="E29">
-        <v>-5468931.9536889018</v>
+        <v>-5468931.9455189016</v>
       </c>
       <c r="F29">
-        <v>-2517684.6626636158</v>
+        <v>-2517684.7125736158</v>
       </c>
       <c r="G29">
-        <v>2101458.285328147</v>
+        <v>2101458.3044281472</v>
       </c>
       <c r="H29">
-        <v>19.361223801084101</v>
+        <v>19.361223922142301</v>
       </c>
       <c r="I29">
-        <v>-155.28048613550001</v>
+        <v>-155.280485671436</v>
       </c>
       <c r="J29">
-        <v>1035.14967444632</v>
+        <v>1035.16884378809</v>
       </c>
       <c r="K29">
-        <v>260452.06807447001</v>
+        <v>260452.11701805401</v>
       </c>
       <c r="L29">
-        <v>2142377.8892286499</v>
+        <v>2142377.9019884998</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -11785,28 +11782,28 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>-5468913.2165000001</v>
+        <v>-5468913.2127999999</v>
       </c>
       <c r="F30">
-        <v>-2517646.3097000001</v>
+        <v>-2517646.3278999999</v>
       </c>
       <c r="G30">
-        <v>2101558.4276999999</v>
+        <v>2101558.4158000001</v>
       </c>
       <c r="H30">
-        <v>19.362176153207599</v>
+        <v>19.362176039291299</v>
       </c>
       <c r="I30">
-        <v>-155.280743114838</v>
+        <v>-155.28074294331699</v>
       </c>
       <c r="J30">
-        <v>1037.16145641822</v>
+        <v>1037.1611513728301</v>
       </c>
       <c r="K30">
-        <v>260426.455441233</v>
+        <v>260426.473299073</v>
       </c>
       <c r="L30">
-        <v>2142483.6911947401</v>
+        <v>2142483.6783438101</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -11823,28 +11820,28 @@
         <v>31</v>
       </c>
       <c r="E31">
-        <v>-5468913.5643283892</v>
+        <v>-5468913.556158389</v>
       </c>
       <c r="F31">
-        <v>-2517604.2415548977</v>
+        <v>-2517604.2914648978</v>
       </c>
       <c r="G31">
-        <v>2101614.0219099196</v>
+        <v>2101614.0410099197</v>
       </c>
       <c r="H31">
-        <v>19.362701625776999</v>
+        <v>19.362701748084501</v>
       </c>
       <c r="I31">
-        <v>-155.28110815787699</v>
+        <v>-155.281107702453</v>
       </c>
       <c r="J31">
-        <v>1039.2940384168201</v>
+        <v>1039.31281309016</v>
       </c>
       <c r="K31">
-        <v>260388.86309792899</v>
+        <v>260388.911135109</v>
       </c>
       <c r="L31">
-        <v>2142542.3786527999</v>
+        <v>2142542.3915627599</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -11861,28 +11858,28 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>-5468888.6670000004</v>
+        <v>-5468888.6624999996</v>
       </c>
       <c r="F32">
-        <v>-2517620.8872000002</v>
+        <v>-2517620.9095000001</v>
       </c>
       <c r="G32">
-        <v>2101677.0372000001</v>
+        <v>2101677.0225999998</v>
       </c>
       <c r="H32">
-        <v>19.363285480040702</v>
+        <v>19.3632853428206</v>
       </c>
       <c r="I32">
-        <v>-155.28086518819299</v>
+        <v>-155.280864973447</v>
       </c>
       <c r="J32">
-        <v>1045.4170274892799</v>
+        <v>1045.41803163383</v>
       </c>
       <c r="K32">
-        <v>260415.24928558199</v>
+        <v>260415.271651419</v>
       </c>
       <c r="L32">
-        <v>2142606.6864280598</v>
+        <v>2142606.6709368899</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -11899,28 +11896,28 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>-5468890.9686450548</v>
+        <v>-5468890.9604750546</v>
       </c>
       <c r="F33">
-        <v>-2517581.2603548975</v>
+        <v>-2517581.3102648975</v>
       </c>
       <c r="G33">
-        <v>2101734.5742427246</v>
+        <v>2101734.5933427247</v>
       </c>
       <c r="H33">
-        <v>19.3638191329098</v>
+        <v>19.363819256682</v>
       </c>
       <c r="I33">
-        <v>-155.28121691187999</v>
+        <v>-155.28121644382901</v>
       </c>
       <c r="J33">
-        <v>1050.8334526978399</v>
+        <v>1050.8517650729</v>
       </c>
       <c r="K33">
-        <v>260379.06890337501</v>
+        <v>260379.11826926901</v>
       </c>
       <c r="L33">
-        <v>2142666.26119219</v>
+        <v>2142666.2742467402</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -11937,28 +11934,28 @@
         <v>31</v>
       </c>
       <c r="E34">
-        <v>-5468867.7895350549</v>
+        <v>-5468867.7813650547</v>
       </c>
       <c r="F34">
-        <v>-2517570.0423482307</v>
+        <v>-2517570.0922582308</v>
       </c>
       <c r="G34">
-        <v>2101806.6681368425</v>
+        <v>2101806.6872368427</v>
       </c>
       <c r="H34">
-        <v>19.364510570078998</v>
+        <v>19.364510693849201</v>
       </c>
       <c r="I34">
-        <v>-155.28122164611599</v>
+        <v>-155.28122117806299</v>
       </c>
       <c r="J34">
-        <v>1050.4480855530101</v>
+        <v>1050.46639809106</v>
       </c>
       <c r="K34">
-        <v>260379.58261087601</v>
+        <v>260379.63197677801</v>
       </c>
       <c r="L34">
-        <v>2142742.8244428802</v>
+        <v>2142742.8374971901</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -12431,28 +12428,28 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>-5469403.2280350551</v>
+        <v>-5469403.2198650548</v>
       </c>
       <c r="F47">
-        <v>-2518445.171548231</v>
+        <v>-2518445.2214582311</v>
       </c>
       <c r="G47">
-        <v>2099193.6035368429</v>
+        <v>2099193.622636843</v>
       </c>
       <c r="H47">
-        <v>19.3396910412526</v>
+        <v>19.339691163616202</v>
       </c>
       <c r="I47">
-        <v>-155.27578795718301</v>
+        <v>-155.27578750183099</v>
       </c>
       <c r="J47">
-        <v>988.74478971213102</v>
+        <v>988.76356313936401</v>
       </c>
       <c r="K47">
-        <v>260914.38625277099</v>
+        <v>260914.434288444</v>
       </c>
       <c r="L47">
-        <v>2139987.2571474202</v>
+        <v>2139987.2700657202</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -12469,28 +12466,28 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>-5469456.2911</v>
+        <v>-5469456.3371000001</v>
       </c>
       <c r="F48">
-        <v>-2518361.1923000002</v>
+        <v>-2518360.9662000001</v>
       </c>
       <c r="G48">
-        <v>2099146.4106999999</v>
+        <v>2099146.5588000002</v>
       </c>
       <c r="H48">
-        <v>19.339249721718801</v>
+        <v>19.3392511408221</v>
       </c>
       <c r="I48">
-        <v>-155.27672498736101</v>
+        <v>-155.27672712378501</v>
       </c>
       <c r="J48">
-        <v>985.45325331576203</v>
+        <v>985.45250310003803</v>
       </c>
       <c r="K48">
-        <v>260815.261358691</v>
+        <v>260815.03888924501</v>
       </c>
       <c r="L48">
-        <v>2139939.6903827498</v>
+        <v>2139939.8504629899</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -12507,28 +12504,28 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>-5469515.4264350552</v>
+        <v>-5469515.4182650549</v>
       </c>
       <c r="F49">
-        <v>-2518279.2034482309</v>
+        <v>-2518279.2533582309</v>
       </c>
       <c r="G49">
-        <v>2099068.4539368427</v>
+        <v>2099068.4730368429</v>
       </c>
       <c r="H49">
-        <v>19.3385272162649</v>
+        <v>19.338527337385901</v>
       </c>
       <c r="I49">
-        <v>-155.277668968467</v>
+        <v>-155.27766850446901</v>
       </c>
       <c r="J49">
-        <v>977.96604836825304</v>
+        <v>977.98521466180705</v>
       </c>
       <c r="K49">
-        <v>260714.99529147599</v>
+        <v>260715.04423444299</v>
       </c>
       <c r="L49">
-        <v>2139861.0006482601</v>
+        <v>2139861.0134165501</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -12545,28 +12542,28 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>-5469583.3378999997</v>
+        <v>-5469583.3761</v>
       </c>
       <c r="F50">
-        <v>-2518210.6403999999</v>
+        <v>-2518210.4520999999</v>
       </c>
       <c r="G50">
-        <v>2098964.0274</v>
+        <v>2098964.1507000001</v>
       </c>
       <c r="H50">
-        <v>19.337538467112399</v>
+        <v>19.337539655853401</v>
       </c>
       <c r="I50">
-        <v>-155.27853182614399</v>
+        <v>-155.27853360228801</v>
       </c>
       <c r="J50">
-        <v>974.53714609332405</v>
+        <v>974.53658916056202</v>
       </c>
       <c r="K50">
-        <v>260622.86608991199</v>
+        <v>260622.68114923299</v>
       </c>
       <c r="L50">
-        <v>2139752.7203615298</v>
+        <v>2139752.85443926</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -12583,28 +12580,28 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>-5469620.9738350557</v>
+        <v>-5469620.9656650554</v>
       </c>
       <c r="F51">
-        <v>-2518190.0817482308</v>
+        <v>-2518190.1316582309</v>
       </c>
       <c r="G51">
-        <v>2098872.1124368426</v>
+        <v>2098872.1315368428</v>
       </c>
       <c r="H51">
-        <v>19.3366785593022</v>
+        <v>19.336678688954802</v>
       </c>
       <c r="I51">
-        <v>-155.27885927986901</v>
+        <v>-155.278858815874</v>
       </c>
       <c r="J51">
-        <v>968.24746803287405</v>
+        <v>968.26696405373502</v>
       </c>
       <c r="K51">
-        <v>260587.195731113</v>
+        <v>260587.24468699601</v>
       </c>
       <c r="L51">
-        <v>2139657.9642664199</v>
+        <v>2139657.9779790598</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -12621,28 +12618,28 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>-5469661.8372</v>
+        <v>-5469661.8831000002</v>
       </c>
       <c r="F52">
-        <v>-2518141.7037</v>
+        <v>-2518141.4774000002</v>
       </c>
       <c r="G52">
-        <v>2098787.5663000001</v>
+        <v>2098787.7144999998</v>
       </c>
       <c r="H52">
-        <v>19.3359074818352</v>
+        <v>19.335908910686999</v>
       </c>
       <c r="I52">
-        <v>-155.27944002618099</v>
+        <v>-155.279442171239</v>
       </c>
       <c r="J52">
-        <v>956.18729765247599</v>
+        <v>956.18648481368996</v>
       </c>
       <c r="K52">
-        <v>260525.03304841701</v>
+        <v>260524.809683028</v>
       </c>
       <c r="L52">
-        <v>2139573.3944115601</v>
+        <v>2139573.5555863902</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -13179,6 +13176,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13206,28 +13204,28 @@
         <v>5</v>
       </c>
       <c r="E1">
-        <v>-5469040.1695196712</v>
+        <v>-5469040.161349671</v>
       </c>
       <c r="F1">
-        <v>-2517956.9304636153</v>
+        <v>-2517956.9803736154</v>
       </c>
       <c r="G1">
-        <v>2100830.6741463668</v>
+        <v>2100830.6932463669</v>
       </c>
       <c r="H1">
-        <v>19.355240353423302</v>
+        <v>19.3552404772141</v>
       </c>
       <c r="I1">
-        <v>-155.278563238922</v>
+        <v>-155.27856277090001</v>
       </c>
       <c r="J1">
-        <v>1027.27756042499</v>
+        <v>1027.2958728969099</v>
       </c>
       <c r="K1">
-        <v>260645.39983440199</v>
+        <v>260645.449199564</v>
       </c>
       <c r="L1">
-        <v>2141712.7300164499</v>
+        <v>2141712.74307406</v>
       </c>
     </row>
   </sheetData>
